--- a/Online Store OM Resources/dataset2/Onlinestore_authentic_dataset_nospace.xlsx
+++ b/Online Store OM Resources/dataset2/Onlinestore_authentic_dataset_nospace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Online Store OM Resources/dataset2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250D7A73-C706-1848-8C66-D48BAE9B56D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE217635-4DF4-EF44-BC12-042960D91325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{94239778-29D5-1242-9DEC-CDC661826A62}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16360" xr2:uid="{94239778-29D5-1242-9DEC-CDC661826A62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,10 +90,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,8 +133,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,7 +454,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,66 +472,66 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
